--- a/sequences_processing/ITS2_CLC/bi_gender_ITS2_B.xlsx
+++ b/sequences_processing/ITS2_CLC/bi_gender_ITS2_B.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t xml:space="preserve">SIMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
   </si>
   <si>
     <t xml:space="preserve">B_2_1</t>
@@ -419,214 +425,334 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1.9520851540203</v>
+        <v>4.58294034922815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.744114129884615</v>
+        <v>0.962921800220802</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1902.23333333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1520.23916666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.13815838393605</v>
+        <v>4.34753540967612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.802634509778495</v>
+        <v>0.956241749866544</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1780.31868131868</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1428.60164835165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>2.25105845583469</v>
+        <v>4.17433375422825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.819145701904019</v>
+        <v>0.937803718937955</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1522.38095238095</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1290.8516886931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>2.20980494655978</v>
+        <v>4.28241552222088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.806916664183624</v>
+        <v>0.950002107295442</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1570.66666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1286.99682371625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1.90630174316697</v>
+        <v>4.0040358178083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.748988015139279</v>
+        <v>0.945241359037422</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1519.2538071066</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1288.29261083744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>2.04019511781805</v>
+        <v>4.13419449004846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7830950692888</v>
+        <v>0.950632499744967</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1584.73618090452</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1319.17673716012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>1.87915347997823</v>
+        <v>3.60897166606588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.764034431430165</v>
+        <v>0.909454365484244</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1529.78321678322</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1174.09878682842</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2.02053278510675</v>
+        <v>3.9264961974688</v>
       </c>
       <c r="C9" t="n">
-        <v>0.776722821101265</v>
+        <v>0.938557396012313</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1359.14942528736</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1147.73236009732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>1.96771884067019</v>
+        <v>3.92540510426485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.775649486899252</v>
+        <v>0.941524985544618</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1523.96126760563</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1163.36458333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2.07941248609878</v>
+        <v>3.87715004299457</v>
       </c>
       <c r="C11" t="n">
-        <v>0.817397792279374</v>
+        <v>0.933044300145345</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1500.1125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1204.45340194397</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2.02710429841376</v>
+        <v>3.89691939918251</v>
       </c>
       <c r="C12" t="n">
-        <v>0.794097707202142</v>
+        <v>0.930901482237463</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1511.56441717791</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1218.68907131862</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2.20370571970796</v>
+        <v>4.52931642905196</v>
       </c>
       <c r="C13" t="n">
-        <v>0.784917740470132</v>
+        <v>0.969757475185267</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1650.875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1358.92139936393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>1.95062327633195</v>
+        <v>4.36289858437643</v>
       </c>
       <c r="C14" t="n">
-        <v>0.752279319511484</v>
+        <v>0.956211772373558</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1597.60377358491</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1377.46632124352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2.15894800372152</v>
+        <v>4.22414336033868</v>
       </c>
       <c r="C15" t="n">
-        <v>0.803896141132378</v>
+        <v>0.951961950035961</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1650.52307692308</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1368.1414427157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>1.79083102846367</v>
+        <v>3.93565274168516</v>
       </c>
       <c r="C16" t="n">
-        <v>0.739799248632057</v>
+        <v>0.942451448504551</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1292.71508379888</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1129.26528117359</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>1.97729184014295</v>
+        <v>3.56261810749936</v>
       </c>
       <c r="C17" t="n">
-        <v>0.795758777015283</v>
+        <v>0.914038298414708</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1413.76333333333</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1119.95770392749</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>2.09883810605941</v>
+        <v>3.66704264180711</v>
       </c>
       <c r="C18" t="n">
-        <v>0.814948301433334</v>
+        <v>0.927810171400962</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1317.56962025316</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1084.41752265861</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>1.72907604520576</v>
+        <v>4.0679462500425</v>
       </c>
       <c r="C19" t="n">
-        <v>0.728184640365083</v>
+        <v>0.932811427012657</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1776.46511627907</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1386.65476190476</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>1.98831948042488</v>
+        <v>3.51247942142626</v>
       </c>
       <c r="C20" t="n">
-        <v>0.800164895070588</v>
+        <v>0.919971364045005</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1294.52631578947</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1006.41742796908</v>
       </c>
     </row>
   </sheetData>
